--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>680040.3809121598</v>
+        <v>611606.4674639702</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554234</v>
+        <v>337002.2430554236</v>
       </c>
     </row>
     <row r="8">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="D2" t="n">
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>7.623236342167999</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>32.59406471070921</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>114.9581870864144</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1186,13 +1186,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>50.05769526855297</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>94.8878138410337</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>84.67670117615893</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H12" t="n">
         <v>104.3883541553076</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>88.18421182873882</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>295.5184317127073</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>26.94389492651033</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H15" t="n">
         <v>104.3883541553076</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>43.31785343913977</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>73.37668880174255</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>279.9387901805692</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>79.23462827288894</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>280.3408772460428</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>159.5623709710786</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>66.93751410372052</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>128.4970238253393</v>
       </c>
       <c r="W22" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>200.432411290036</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>12.77609278441142</v>
       </c>
     </row>
     <row r="24">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>216.6993815150878</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.440065804380572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>296.7354219151284</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>269.5134569480836</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2642,7 +2642,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>223.82438355203</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>47.1298706846999</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>130.4027690389047</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>101.625715293184</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>127.6114349298493</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>144.7886364962845</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>46.53022516273541</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>4.553842565068801</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>146.4340874029168</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>196.6482960948751</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>14.82811972447759</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>114.9366699030838</v>
       </c>
       <c r="E38" t="n">
-        <v>317.5247453988038</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="V40" t="n">
-        <v>54.42397186352292</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>163.3904686173342</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>159.2882771889792</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>150.5540262346243</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>340.0237825764897</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>321.7107513386447</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4369,13 +4369,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,19 +4415,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>956.3569167811736</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>754.1703221399396</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U3" t="n">
-        <v>525.9467038763287</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V3" t="n">
-        <v>525.9467038763287</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W3" t="n">
-        <v>525.9467038763287</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>318.0952036707959</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4509,31 +4509,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.7108255783361</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>385.8949250843803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>211.4418958032533</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
         <v>19.28114311021272</v>
@@ -4655,7 +4655,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>761.8705608694022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>761.8705608694022</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>554.1102621044483</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4743,10 +4743,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>376.1934816808115</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>132.7447050367114</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4892,16 +4892,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>913.4938269565423</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V9" t="n">
-        <v>678.3417187247995</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W9" t="n">
-        <v>434.8929420806995</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4995,10 +4995,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>850.7171392082162</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C11" t="n">
-        <v>850.7171392082162</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D11" t="n">
-        <v>850.7171392082162</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E11" t="n">
-        <v>464.928886609972</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859356</v>
+        <v>2171.363541363379</v>
       </c>
       <c r="X11" t="n">
-        <v>936.2491605982757</v>
+        <v>2171.363541363379</v>
       </c>
       <c r="Y11" t="n">
-        <v>850.7171392082162</v>
+        <v>1781.224209387568</v>
       </c>
     </row>
     <row r="12">
@@ -5102,13 +5102,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5120,16 +5120,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>639.0540227632637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>411.0644718652463</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1166.959449965771</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="C14" t="n">
-        <v>797.9969330253591</v>
+        <v>1567.184413686502</v>
       </c>
       <c r="D14" t="n">
-        <v>439.7312344186087</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036444</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5305,25 +5305,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V14" t="n">
-        <v>2669.933035536898</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W14" t="n">
-        <v>2317.164380266784</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X14" t="n">
-        <v>1943.698622005704</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="Y14" t="n">
-        <v>1553.559290029893</v>
+        <v>1936.146930626913</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5354,7 +5354,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5369,31 +5369,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.69838933464703</v>
+        <v>654.0111167299266</v>
       </c>
       <c r="C16" t="n">
-        <v>97.69838933464703</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D16" t="n">
-        <v>97.69838933464703</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E16" t="n">
-        <v>97.69838933464703</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F16" t="n">
-        <v>97.69838933464703</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5466,22 +5466,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>654.0111167299266</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>654.0111167299266</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>654.0111167299266</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>654.0111167299266</v>
       </c>
       <c r="X16" t="n">
-        <v>500.1394333084169</v>
+        <v>654.0111167299266</v>
       </c>
       <c r="Y16" t="n">
-        <v>279.3468541648867</v>
+        <v>654.0111167299266</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1208.982837814967</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C17" t="n">
-        <v>1208.982837814967</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D17" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5518,16 +5518,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1582.448596076046</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1208.982837814967</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y17" t="n">
-        <v>1208.982837814967</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424006</v>
@@ -5600,37 +5600,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>190.2718927217162</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C19" t="n">
-        <v>190.2718927217162</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D19" t="n">
-        <v>190.2718927217162</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E19" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>444.9563809276031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W19" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X19" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y19" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2310.5492509541</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C20" t="n">
-        <v>1941.586734013689</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D20" t="n">
-        <v>1583.321035406938</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E20" t="n">
-        <v>1197.532782808694</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F20" t="n">
-        <v>786.5468780190865</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G20" t="n">
-        <v>368.5830699172734</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H20" t="n">
         <v>207.4089578252748</v>
@@ -5755,16 +5755,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X20" t="n">
-        <v>2697.149091018222</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y20" t="n">
-        <v>2697.149091018222</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W22" t="n">
-        <v>502.7251118619119</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X22" t="n">
-        <v>274.7355609638946</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1369.416431066817</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C23" t="n">
-        <v>1000.453914126406</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D23" t="n">
-        <v>642.1882155196552</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>256.3999629214109</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>256.3999629214109</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
         <v>881.2824271224075</v>
@@ -6007,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>2112.324418312743</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W23" t="n">
-        <v>1759.555763042629</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X23" t="n">
-        <v>1759.555763042629</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y23" t="n">
-        <v>1369.416431066817</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6089,28 +6089,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>541.9956044222747</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C25" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y25" t="n">
-        <v>723.6440692525144</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1491.915471247702</v>
+        <v>1133.624152959604</v>
       </c>
       <c r="C26" t="n">
-        <v>1122.952954307291</v>
+        <v>764.6616360191927</v>
       </c>
       <c r="D26" t="n">
-        <v>1122.952954307291</v>
+        <v>764.6616360191927</v>
       </c>
       <c r="E26" t="n">
-        <v>737.1647017090463</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F26" t="n">
-        <v>326.1787969194388</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6226,13 +6226,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W26" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.654643287636</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="Y26" t="n">
-        <v>1878.515311311824</v>
+        <v>1520.223993023726</v>
       </c>
     </row>
     <row r="27">
@@ -6290,37 +6290,37 @@
         <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
         <v>2525.076107152626</v>
@@ -6414,19 +6414,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>500.820796875036</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
         <v>53.94298182036445</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>808.6937513590204</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="C29" t="n">
-        <v>439.7312344186087</v>
+        <v>1469.752853299485</v>
       </c>
       <c r="D29" t="n">
-        <v>439.7312344186087</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E29" t="n">
-        <v>53.94298182036446</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036446</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U29" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V29" t="n">
-        <v>2311.667336930148</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W29" t="n">
-        <v>1958.898681660034</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X29" t="n">
-        <v>1585.432923398954</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y29" t="n">
-        <v>1195.293591423142</v>
+        <v>1838.715370239897</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L30" t="n">
         <v>713.8062203571349</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>319.1723320447963</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C31" t="n">
-        <v>319.1723320447963</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="D31" t="n">
-        <v>319.1723320447963</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E31" t="n">
-        <v>319.1723320447963</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F31" t="n">
-        <v>319.1723320447963</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6630,43 +6630,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>500.8207968750361</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W31" t="n">
-        <v>500.8207968750361</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X31" t="n">
-        <v>500.8207968750361</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y31" t="n">
-        <v>500.8207968750361</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1408.083041312479</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="C32" t="n">
-        <v>1039.120524372067</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="D32" t="n">
-        <v>680.8548257653169</v>
+        <v>518.9070173592841</v>
       </c>
       <c r="E32" t="n">
-        <v>680.8548257653169</v>
+        <v>518.9070173592841</v>
       </c>
       <c r="F32" t="n">
-        <v>680.8548257653169</v>
+        <v>518.9070173592841</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>100.9432092574709</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>100.9432092574709</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6718,34 +6718,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990286</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2478.514423990286</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V32" t="n">
-        <v>2147.451536646715</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W32" t="n">
-        <v>1794.682881376601</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X32" t="n">
-        <v>1794.682881376601</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y32" t="n">
-        <v>1794.682881376601</v>
+        <v>877.1727159660345</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
         <v>309.190302261463</v>
@@ -6791,31 +6791,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>286.5323736931988</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>286.5323736931988</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V34" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W34" t="n">
-        <v>281.9325327183818</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2107.607341885688</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C35" t="n">
-        <v>2107.607341885688</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D35" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
         <v>881.2824271224076</v>
@@ -6955,34 +6955,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2494.20718194981</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U35" t="n">
-        <v>2494.20718194981</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V35" t="n">
-        <v>2494.20718194981</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W35" t="n">
-        <v>2494.20718194981</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="X35" t="n">
-        <v>2494.20718194981</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="Y35" t="n">
-        <v>2494.20718194981</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610022</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V37" t="n">
-        <v>438.9553738610022</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W37" t="n">
-        <v>149.5382038240415</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X37" t="n">
-        <v>149.5382038240415</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2053.247973680502</v>
+        <v>588.0044362889289</v>
       </c>
       <c r="C38" t="n">
-        <v>1684.28545674009</v>
+        <v>588.0044362889289</v>
       </c>
       <c r="D38" t="n">
-        <v>1684.28545674009</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E38" t="n">
-        <v>1363.553390680693</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7192,34 +7192,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U38" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V38" t="n">
-        <v>2443.387305656314</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W38" t="n">
-        <v>2443.387305656314</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X38" t="n">
-        <v>2443.387305656314</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y38" t="n">
-        <v>2053.247973680502</v>
+        <v>974.6042763530506</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M39" t="n">
         <v>1194.968834417902</v>
@@ -7274,22 +7274,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7298,7 +7298,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>579.9823256406182</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V40" t="n">
-        <v>525.0086166875648</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W40" t="n">
-        <v>235.5914466506042</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X40" t="n">
-        <v>235.5914466506042</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y40" t="n">
-        <v>235.5914466506042</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1865.381229508782</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C41" t="n">
-        <v>1496.41871256837</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D41" t="n">
-        <v>1496.41871256837</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E41" t="n">
-        <v>1110.630459970126</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>699.6445551805186</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7441,22 +7441,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X41" t="n">
-        <v>2642.120401548716</v>
+        <v>1578.756942221256</v>
       </c>
       <c r="Y41" t="n">
-        <v>2251.981069572904</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7502,13 +7502,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C43" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D43" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>576.0542102320662</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>348.7460229006679</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V43" t="n">
-        <v>348.7460229006679</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W43" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X43" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y43" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1194.175505447095</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C44" t="n">
-        <v>1194.175505447095</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="D44" t="n">
-        <v>1194.175505447095</v>
+        <v>1182.655397407942</v>
       </c>
       <c r="E44" t="n">
-        <v>808.3872528488505</v>
+        <v>796.8671448096975</v>
       </c>
       <c r="F44" t="n">
-        <v>397.4013480592429</v>
+        <v>796.8671448096975</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>378.9033367078844</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W44" t="n">
-        <v>2344.380435748108</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X44" t="n">
-        <v>1970.914677487028</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y44" t="n">
-        <v>1580.775345511217</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7748,22 +7748,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V46" t="n">
-        <v>473.4444960005474</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,13 +8063,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9971,7 +9971,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L39" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>152.9875061275656</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22564,7 +22564,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22646,10 +22646,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>164.0599347616698</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22722,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>115.2022481737659</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22749,7 +22749,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22798,10 +22798,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>245.0643151220611</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22831,10 +22831,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>114.8510008539295</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22916,22 +22916,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="7">
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>291.917858655297</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -23074,13 +23074,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23156,7 +23156,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>175.8836868124218</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23235,13 +23235,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>254.3531548763793</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>301.5612374798947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23436,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23472,19 +23472,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>198.3387865078522</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>59.16460990797566</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23545,25 +23545,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8083635436246</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>123.9919488199111</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>45.19995918853701</v>
@@ -23706,7 +23706,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>151.6584166563417</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>74.74425144011371</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>270.0063404445241</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23946,10 +23946,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>5.940996995934938</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>164.3604017932786</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>302.7935865747485</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>123.6406194984887</v>
       </c>
       <c r="W22" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>213.351758730759</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24262,7 +24262,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>373.4618458716421</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>69.58249272688991</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>214.1445875477142</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24451,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>85.19494815713335</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>144.2707130727114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24654,22 +24654,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.885271837007167</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>307.5531709359831</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>197.3494894312302</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>78.20626488875325</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>39.69836732920157</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24891,13 +24891,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>268.9955335245104</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>105.4010910821258</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>247.5838007587592</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>131.0703856053966</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>70.01423295474095</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>152.5926726225379</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25317,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>271.6948786121134</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>123.9453835684545</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>239.7463717175992</v>
       </c>
       <c r="E38" t="n">
-        <v>64.40562467345802</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25605,13 +25605,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>226.5550366661091</v>
       </c>
       <c r="V40" t="n">
-        <v>197.7136714603051</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>250.3937014034608</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>210.4428234894899</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>72.67053247541037</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>61.5915127153946</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>73.76038744430531</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>2.212021425712464</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>130.3958356744438</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465368.9729778747</v>
+        <v>465368.9729778746</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465368.9729778747</v>
+        <v>465368.9729778746</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465368.9729778745</v>
+        <v>465368.9729778746</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131493</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131493</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>798427.8661131496</v>
+        <v>798427.8661131493</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>798427.866113149</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="16">
@@ -26328,19 +26328,19 @@
         <v>231322.0880126061</v>
       </c>
       <c r="G2" t="n">
-        <v>231322.088012606</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="J2" t="n">
         <v>231322.0880126062</v>
       </c>
       <c r="K2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
         <v>231322.0880126062</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26490,28 +26490,28 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="L5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="M5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="M5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="N5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13036.85191122436</v>
+        <v>-25254.8625312648</v>
       </c>
       <c r="C6" t="n">
-        <v>67732.57962032341</v>
+        <v>55514.56900028294</v>
       </c>
       <c r="D6" t="n">
-        <v>67732.57962032341</v>
+        <v>55514.56900028297</v>
       </c>
       <c r="E6" t="n">
-        <v>-268984.4916634627</v>
+        <v>-275052.9054092819</v>
       </c>
       <c r="F6" t="n">
-        <v>163861.6823795333</v>
+        <v>157793.2686337141</v>
       </c>
       <c r="G6" t="n">
-        <v>163861.6823795333</v>
+        <v>157793.2686337141</v>
       </c>
       <c r="H6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337141</v>
       </c>
       <c r="I6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337142</v>
       </c>
       <c r="J6" t="n">
-        <v>100801.7397804272</v>
+        <v>94733.32603460804</v>
       </c>
       <c r="K6" t="n">
-        <v>163861.6823795335</v>
+        <v>157793.2686337141</v>
       </c>
       <c r="L6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337143</v>
       </c>
       <c r="M6" t="n">
-        <v>55888.32170547532</v>
+        <v>49819.90795965605</v>
       </c>
       <c r="N6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337142</v>
       </c>
       <c r="O6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337142</v>
       </c>
       <c r="P6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337141</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
         <v>377.7436642170866</v>
@@ -26767,19 +26767,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26801,7 +26801,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26810,28 +26810,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="L4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="N4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768964</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,22 +32408,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,22 +32645,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34783,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N6" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35260,10 +35260,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35737,7 +35737,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245897</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,13 +36448,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36688,10 +36688,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36925,7 +36925,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L39" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38107,13 +38107,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>611606.4674639702</v>
+        <v>672441.9423756703</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554236</v>
+        <v>337002.243055424</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8271080.068377357</v>
+        <v>8271080.068377355</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="3">
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>63.88882306452221</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>196.5315760613044</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="6">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>114.9581870864144</v>
+        <v>110.8731063230735</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>49.3111039422953</v>
+        <v>50.05769526855342</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>94.8878138410337</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>65.41130163823594</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
         <v>104.3883541553076</v>
@@ -1505,7 +1505,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>128.7835007017903</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>65.29997400339131</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>295.5184317127073</v>
+        <v>80.06579767188194</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>73.37668880174255</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>16.91544265059225</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>279.9387901805692</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>144.7098372993471</v>
       </c>
     </row>
     <row r="18">
@@ -1976,7 +1976,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U18" t="n">
         <v>225.8879277888686</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>66.93751410372052</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>114.5951191901813</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U21" t="n">
         <v>225.8879277888686</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>128.4970238253393</v>
+        <v>59.7268375758688</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2323,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>306.6626922808587</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>12.77609278441142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250842</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>48.97699675700486</v>
       </c>
       <c r="U25" t="n">
-        <v>216.6993815150878</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>296.7354219151284</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>83.35754216493061</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>7.270565549321758</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>47.1298706846999</v>
+        <v>117.5179411013689</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>101.625715293184</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>61.4954412004503</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>46.53022516273541</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>84.84244993117485</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,16 +3268,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>251.3808181148277</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -3316,22 +3316,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>196.6482960948751</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>83.82953530753691</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>14.82811972447759</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>114.9366699030838</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>239.5540690046414</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I39" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>59.72683757586869</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>94.63926978364051</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>336.644853030499</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>159.2882771889792</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>265.2101786338239</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>321.7107513386447</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>95.33023562355984</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>155.886038567534</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C2" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C2" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="X2" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="Y2" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="X2" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4415,40 +4415,40 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>726.1056462496665</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>497.8820279860555</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V3" t="n">
-        <v>262.7299197543128</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>217.7978866064798</v>
       </c>
       <c r="X3" t="n">
         <v>19.28114311021272</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
         <v>19.28114311021272</v>
@@ -4509,31 +4509,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>358.0940480307835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>358.0940480307835</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>358.0940480307835</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,46 +4652,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X6" t="n">
-        <v>49.38115216564972</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="7">
@@ -4749,10 +4749,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>591.4512093066566</v>
+        <v>587.3248651012618</v>
       </c>
       <c r="C8" t="n">
-        <v>591.4512093066566</v>
+        <v>587.3248651012618</v>
       </c>
       <c r="D8" t="n">
-        <v>591.4512093066566</v>
+        <v>587.3248651012618</v>
       </c>
       <c r="E8" t="n">
-        <v>591.4512093066566</v>
+        <v>587.3248651012618</v>
       </c>
       <c r="F8" t="n">
-        <v>475.3318284112885</v>
+        <v>475.3318284112886</v>
       </c>
       <c r="G8" t="n">
         <v>231.8830517671884</v>
@@ -4801,55 +4801,55 @@
         <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K8" t="n">
         <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057941</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686983</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759377</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185857</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953339</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953339</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>587.3248651012618</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>587.3248651012618</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>587.3248651012618</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>587.3248651012618</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>587.3248651012618</v>
       </c>
       <c r="Y8" t="n">
-        <v>591.4512093066566</v>
+        <v>587.3248651012618</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K9" t="n">
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569327</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458153</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346979</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="U9" t="n">
-        <v>914.2479596093278</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V9" t="n">
-        <v>679.0958513775852</v>
+        <v>678.3417187247996</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021274</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>46.59526811792571</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>85.78330631014789</v>
       </c>
       <c r="N10" t="n">
         <v>129.4741569655842</v>
@@ -4995,19 +4995,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1394.624369323446</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C11" t="n">
-        <v>1394.624369323446</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D11" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E11" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533142</v>
@@ -5059,34 +5059,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2267.209817970484</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V11" t="n">
-        <v>2267.209817970484</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W11" t="n">
-        <v>2171.363541363379</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X11" t="n">
-        <v>2171.363541363379</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="Y11" t="n">
-        <v>1781.224209387568</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5117,19 +5117,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5141,22 +5141,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5232,19 +5232,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V13" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1936.146930626913</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="C14" t="n">
-        <v>1567.184413686502</v>
+        <v>1503.021466417851</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5305,25 +5305,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U14" t="n">
-        <v>2267.209817970484</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V14" t="n">
-        <v>1936.146930626913</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W14" t="n">
-        <v>1936.146930626913</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X14" t="n">
-        <v>1936.146930626913</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y14" t="n">
-        <v>1936.146930626913</v>
+        <v>1871.983983358263</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>654.0111167299266</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C16" t="n">
-        <v>485.0749338020197</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D16" t="n">
-        <v>485.0749338020197</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E16" t="n">
-        <v>337.1618402196266</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>654.0111167299266</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>654.0111167299266</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>654.0111167299266</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>654.0111167299266</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X16" t="n">
-        <v>654.0111167299266</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="Y16" t="n">
-        <v>654.0111167299266</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1920.409918978289</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="C17" t="n">
-        <v>1551.447402037877</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="D17" t="n">
-        <v>1268.68094731003</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117852</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5518,10 +5518,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y17" t="n">
-        <v>2307.009759042411</v>
+        <v>1184.889762484419</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424006</v>
@@ -5600,19 +5600,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5624,13 +5624,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>667.7988452409105</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C19" t="n">
-        <v>498.8626623130036</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D19" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E19" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
         <v>53.94298182036445</v>
@@ -5706,19 +5706,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064344</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X19" t="n">
-        <v>728.1289842064344</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y19" t="n">
-        <v>728.1289842064344</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1749.341643278937</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C20" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D20" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E20" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F20" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U20" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V20" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W20" t="n">
-        <v>1816.955293888756</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X20" t="n">
-        <v>1749.341643278937</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y20" t="n">
-        <v>1749.341643278937</v>
+        <v>1405.321187657107</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M21" t="n">
         <v>1313.210296315296</v>
@@ -5849,16 +5849,16 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
         <v>2289.884200196743</v>
@@ -5876,7 +5876,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>222.8791647482714</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5919,7 +5919,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N22" t="n">
         <v>529.6040388502502</v>
@@ -5928,34 +5928,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S22" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T22" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U22" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V22" t="n">
-        <v>222.8791647482714</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W22" t="n">
-        <v>222.8791647482714</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X22" t="n">
-        <v>222.8791647482714</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.8791647482714</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1626.94664591678</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="C23" t="n">
-        <v>1626.94664591678</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.68094731003</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F23" t="n">
         <v>471.9067899221776</v>
@@ -5989,19 +5989,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6019,22 +6019,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W23" t="n">
-        <v>2013.317548404538</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X23" t="n">
-        <v>1639.851790143458</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y23" t="n">
-        <v>1626.94664591678</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036446</v>
@@ -6071,22 +6071,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598711</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6113,7 +6113,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036446</v>
+        <v>678.65727031047</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036446</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
         <v>53.94298182036446</v>
@@ -6156,7 +6156,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N25" t="n">
         <v>529.6040388502502</v>
@@ -6165,34 +6165,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T25" t="n">
-        <v>500.8207968750362</v>
+        <v>678.65727031047</v>
       </c>
       <c r="U25" t="n">
-        <v>281.9325327183818</v>
+        <v>678.65727031047</v>
       </c>
       <c r="V25" t="n">
-        <v>281.9325327183818</v>
+        <v>678.65727031047</v>
       </c>
       <c r="W25" t="n">
-        <v>281.9325327183818</v>
+        <v>678.65727031047</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036446</v>
+        <v>678.65727031047</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036446</v>
+        <v>678.65727031047</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1133.624152959604</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C26" t="n">
-        <v>764.6616360191927</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D26" t="n">
-        <v>764.6616360191927</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E26" t="n">
         <v>464.928886609972</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6244,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.752638628377</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V26" t="n">
-        <v>1893.689751284806</v>
+        <v>2359.18776811598</v>
       </c>
       <c r="W26" t="n">
-        <v>1893.689751284806</v>
+        <v>2359.18776811598</v>
       </c>
       <c r="X26" t="n">
-        <v>1520.223993023726</v>
+        <v>1985.7220098549</v>
       </c>
       <c r="Y26" t="n">
-        <v>1520.223993023726</v>
+        <v>1595.582677879089</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>720.784978601059</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="V28" t="n">
-        <v>343.360151857325</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1838.715370239897</v>
+        <v>1387.385938321513</v>
       </c>
       <c r="C29" t="n">
-        <v>1469.752853299485</v>
+        <v>1387.385938321513</v>
       </c>
       <c r="D29" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2465.942913862885</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U29" t="n">
-        <v>2212.181128500977</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V29" t="n">
-        <v>2212.181128500977</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="W29" t="n">
-        <v>2212.181128500977</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="X29" t="n">
-        <v>1838.715370239897</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y29" t="n">
-        <v>1838.715370239897</v>
+        <v>1773.985778385635</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>370.7922583306645</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C31" t="n">
-        <v>201.8560754027575</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D31" t="n">
-        <v>201.8560754027575</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W31" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X31" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y31" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>877.1727159660345</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C32" t="n">
-        <v>877.1727159660345</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D32" t="n">
-        <v>518.9070173592841</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E32" t="n">
-        <v>518.9070173592841</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F32" t="n">
-        <v>518.9070173592841</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>100.9432092574709</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>100.9432092574709</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6712,7 +6712,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6727,25 +6727,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W32" t="n">
-        <v>1640.777806202926</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X32" t="n">
-        <v>1267.312047941846</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y32" t="n">
-        <v>877.1727159660345</v>
+        <v>2169.72394915887</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6803,19 +6803,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>139.6424261952886</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036445</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610024</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V34" t="n">
-        <v>438.9553738610024</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W34" t="n">
-        <v>149.5382038240418</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1626.94664591678</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="C35" t="n">
-        <v>1626.94664591678</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F35" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733127</v>
@@ -6955,34 +6955,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U35" t="n">
-        <v>2212.181128500978</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V35" t="n">
-        <v>2212.181128500978</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W35" t="n">
-        <v>2013.546485980902</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X35" t="n">
-        <v>2013.546485980902</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y35" t="n">
-        <v>2013.546485980902</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424006</v>
@@ -7013,46 +7013,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>498.8626623130036</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="C37" t="n">
-        <v>498.8626623130036</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7460229006679</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>138.6192801108058</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>138.6192801108058</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7125,22 +7125,22 @@
         <v>513.8405610245972</v>
       </c>
       <c r="T37" t="n">
-        <v>513.8405610245972</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U37" t="n">
-        <v>513.8405610245972</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V37" t="n">
-        <v>513.8405610245972</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W37" t="n">
-        <v>498.8626623130036</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X37" t="n">
-        <v>498.8626623130036</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="Y37" t="n">
-        <v>498.8626623130036</v>
+        <v>286.5323736931989</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>588.0044362889289</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C38" t="n">
-        <v>588.0044362889289</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D38" t="n">
-        <v>471.9067899221776</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E38" t="n">
-        <v>471.9067899221776</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036446</v>
@@ -7174,10 +7174,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
         <v>881.2824271224076</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2302.336936304456</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U38" t="n">
-        <v>2048.575150942547</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V38" t="n">
-        <v>1717.512263598976</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W38" t="n">
-        <v>1364.743608328862</v>
+        <v>1596.687254739904</v>
       </c>
       <c r="X38" t="n">
-        <v>1364.743608328862</v>
+        <v>1596.687254739904</v>
       </c>
       <c r="Y38" t="n">
-        <v>974.6042763530506</v>
+        <v>1596.687254739904</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>221.4284102424008</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036446</v>
@@ -7256,13 +7256,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C40" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D40" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
         <v>53.94298182036446</v>
@@ -7365,19 +7365,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>667.7988452409105</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V40" t="n">
-        <v>667.7988452409105</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W40" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X40" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y40" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1192.157102157134</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C41" t="n">
-        <v>823.1945852167225</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="D41" t="n">
-        <v>464.928886609972</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7411,7 +7411,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733127</v>
@@ -7423,7 +7423,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7441,22 +7441,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2092.422847177208</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>1739.654191907093</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X41" t="n">
-        <v>1578.756942221256</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y41" t="n">
-        <v>1578.756942221256</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7511,22 +7511,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7599,22 +7599,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610024</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V43" t="n">
-        <v>438.9553738610024</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W43" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1540.921096014692</v>
+        <v>1150.78176403888</v>
       </c>
       <c r="C44" t="n">
-        <v>1540.921096014692</v>
+        <v>1150.78176403888</v>
       </c>
       <c r="D44" t="n">
-        <v>1182.655397407942</v>
+        <v>1150.78176403888</v>
       </c>
       <c r="E44" t="n">
-        <v>796.8671448096975</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>796.8671448096975</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>378.9033367078844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533142</v>
@@ -7666,19 +7666,19 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2478.514423990286</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U44" t="n">
         <v>2224.752638628377</v>
@@ -7693,7 +7693,7 @@
         <v>1540.921096014692</v>
       </c>
       <c r="Y44" t="n">
-        <v>1540.921096014692</v>
+        <v>1150.78176403888</v>
       </c>
     </row>
     <row r="45">
@@ -7724,10 +7724,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
         <v>309.190302261463</v>
@@ -7736,7 +7736,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>631.8358169099093</v>
       </c>
       <c r="T46" t="n">
-        <v>500.8207968750362</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="U46" t="n">
-        <v>343.3601518573251</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="V46" t="n">
-        <v>343.3601518573251</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036446</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036446</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
   </sheetData>
@@ -8063,10 +8063,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,22 +8300,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996775</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609924</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221036</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880058</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9238900028825</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627449</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11384,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093294</v>
       </c>
       <c r="N45" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22552,7 +22552,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="3">
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>136.2759056302994</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>9.241409142173097</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22722,7 +22722,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>115.2022481737659</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -22749,7 +22749,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22764,7 +22764,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22795,13 +22795,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>245.0643151220611</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22831,10 +22831,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="6">
@@ -22871,7 +22871,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>22.97751176594195</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22928,10 +22928,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22989,13 +22989,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>291.917858655297</v>
+        <v>296.0029394186379</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>174.2884486374759</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23156,13 +23156,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>176.6302781386795</v>
+        <v>175.8836868124214</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326044</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23278,7 +23278,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>254.3531548763793</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>320.8266370178176</v>
       </c>
     </row>
     <row r="12">
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23472,19 +23472,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>157.4983735401874</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>153.2846793487035</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>59.16460990797566</v>
+        <v>274.617243948801</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>151.6584166563417</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>208.7942127384449</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>74.74425144011371</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23788,19 +23788,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.5281013567065</v>
       </c>
     </row>
     <row r="18">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>51.79469286292863</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23946,13 +23946,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>302.7935865747485</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>271.6428194658723</v>
       </c>
     </row>
     <row r="21">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,22 +24171,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>123.6406194984887</v>
+        <v>192.4108057479592</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24211,13 +24211,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>48.02034933982429</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>373.4618458716421</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,13 +24381,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801578</v>
@@ -24417,10 +24417,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>176.0581087010794</v>
       </c>
       <c r="U25" t="n">
-        <v>69.58249272688991</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>85.19494815713335</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>244.3947163052043</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,22 +24645,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>204.8749734006971</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>307.5531709359831</v>
+        <v>237.165100519314</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.20626488875325</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>83.12091415361536</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>321.2384004630303</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>105.4010910821258</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>82.46735232787606</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25125,22 +25125,22 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>131.0703856053966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,16 +25156,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>113.8920736561799</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>152.5926726225379</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>83.480266951514</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>271.6948786121134</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,19 +25396,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>239.7463717175992</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>109.6868997127716</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25605,13 +25605,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>226.5550366661091</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>70.23119271121243</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25681,22 +25681,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>210.4428234894899</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>72.67053247541037</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25839,7 +25839,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25870,19 +25870,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>116.7201914384379</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.212021425712464</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26073,19 +26073,19 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>116.8153033264591</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3958356744438</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465368.9729778746</v>
+        <v>465368.9729778745</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465368.9729778746</v>
+        <v>465368.9729778745</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>798427.8661131492</v>
+        <v>798427.8661131493</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>798427.8661131492</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131493</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
   </sheetData>
@@ -26319,13 +26319,13 @@
         <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="E2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="G2" t="n">
         <v>231322.0880126061</v>
@@ -26334,28 +26334,28 @@
         <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="K2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
+        <v>231322.0880126061</v>
+      </c>
+      <c r="M2" t="n">
         <v>231322.0880126062</v>
-      </c>
-      <c r="M2" t="n">
-        <v>231322.0880126061</v>
       </c>
       <c r="N2" t="n">
         <v>231322.0880126062</v>
       </c>
       <c r="O2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740582</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26475,10 +26475,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376168</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26487,22 +26487,22 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="I5" t="n">
+        <v>49231.47806340948</v>
+      </c>
+      <c r="J5" t="n">
+        <v>49231.47806340948</v>
+      </c>
+      <c r="K5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="J5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="K5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340947</v>
@@ -26511,7 +26511,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25254.8625312648</v>
+        <v>-14258.65297322835</v>
       </c>
       <c r="C6" t="n">
-        <v>55514.56900028294</v>
+        <v>66510.77855831936</v>
       </c>
       <c r="D6" t="n">
-        <v>55514.56900028297</v>
+        <v>66510.77855831941</v>
       </c>
       <c r="E6" t="n">
-        <v>-275052.9054092819</v>
+        <v>-269591.3330380446</v>
       </c>
       <c r="F6" t="n">
-        <v>157793.2686337141</v>
+        <v>163254.8410049515</v>
       </c>
       <c r="G6" t="n">
-        <v>157793.2686337141</v>
+        <v>163254.8410049514</v>
       </c>
       <c r="H6" t="n">
-        <v>157793.2686337141</v>
+        <v>163254.8410049515</v>
       </c>
       <c r="I6" t="n">
-        <v>157793.2686337142</v>
+        <v>163254.8410049514</v>
       </c>
       <c r="J6" t="n">
-        <v>94733.32603460804</v>
+        <v>100194.8984058452</v>
       </c>
       <c r="K6" t="n">
-        <v>157793.2686337141</v>
+        <v>163254.8410049514</v>
       </c>
       <c r="L6" t="n">
-        <v>157793.2686337143</v>
+        <v>163254.8410049514</v>
       </c>
       <c r="M6" t="n">
-        <v>49819.90795965605</v>
+        <v>55281.48033089343</v>
       </c>
       <c r="N6" t="n">
-        <v>157793.2686337142</v>
+        <v>163254.8410049515</v>
       </c>
       <c r="O6" t="n">
-        <v>157793.2686337142</v>
+        <v>163254.8410049515</v>
       </c>
       <c r="P6" t="n">
-        <v>157793.2686337141</v>
+        <v>163254.8410049516</v>
       </c>
     </row>
   </sheetData>
@@ -26749,22 +26749,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="I3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="J3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="K3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="I3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="J3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="K3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
         <v>377.7436642170867</v>
@@ -26795,10 +26795,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26807,22 +26807,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545557</v>
@@ -26831,7 +26831,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,22 +32171,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32469,7 +32469,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32478,34 +32478,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M20" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P20" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,40 +32542,40 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I21" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N21" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
@@ -32584,7 +32584,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,25 +32645,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32715,34 +32715,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M23" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P23" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,40 +32779,40 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I24" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L24" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M24" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N24" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O24" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P24" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
@@ -32821,7 +32821,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,25 +32882,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L27" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M27" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N27" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O27" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,25 +33119,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,22 +33356,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -34783,10 +34783,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736756</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338903</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36126,22 +36126,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M20" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P20" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338903</v>
@@ -36217,10 +36217,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36293,10 +36293,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36363,22 +36363,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M23" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P23" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338903</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36530,10 +36530,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O25" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36767,10 +36767,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O28" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>515.9012490932192</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -38031,7 +38031,7 @@
         <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530448</v>
       </c>
       <c r="P44" t="n">
         <v>308.9376163116798</v>
@@ -38104,10 +38104,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N45" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
